--- a/CleanData/EvaluationTVERtwo.xlsx
+++ b/CleanData/EvaluationTVERtwo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="17860" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="-43800" yWindow="2740" windowWidth="24980" windowHeight="17860" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="44">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
   <si>
     <t>N1</t>
   </si>
@@ -167,6 +146,27 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty   </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -588,113 +588,113 @@
   <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12">
         <v>4</v>
@@ -725,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="14">
         <v>4</v>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" s="12">
         <v>4</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3" s="14">
         <v>4</v>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12">
         <v>4</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="14">
         <v>3</v>
@@ -1132,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12">
         <v>4</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="14">
         <v>4</v>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="14">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="14">
         <v>2</v>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12">
         <v>4</v>
@@ -1765,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12" s="14">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="14">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="14">
         <v>3</v>
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12">
         <v>4</v>
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="14">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12">
         <v>4</v>
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="14">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12">
         <v>5</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H17" s="14">
         <v>2</v>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="12">
         <v>5</v>
@@ -2389,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="14">
         <v>2</v>
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="12">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="12">
         <v>5</v>
@@ -2597,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="14">
         <v>3</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21" s="12">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="14">
         <v>4</v>
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12">
         <v>5</v>
@@ -2805,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="14">
         <v>2</v>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24" s="12">
         <v>4</v>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24" s="14">
         <v>3</v>
@@ -4009,114 +4009,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -4142,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1">
         <v>5</v>
@@ -4237,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -4246,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -4549,7 +4549,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
@@ -4653,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -4662,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -4766,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -4861,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -4870,7 +4870,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
@@ -4965,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -5069,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -5182,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -5286,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -5381,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -5390,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -5485,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -5598,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
@@ -5693,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -5702,7 +5702,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -5797,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -5901,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -5910,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -6014,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -6109,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -6118,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -6213,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -6222,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -6326,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -6421,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -6430,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -6534,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -6629,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -6638,7 +6638,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -6733,7 +6733,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -6742,7 +6742,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -6837,7 +6837,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -6846,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -7045,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -7158,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -7253,7 +7253,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -7262,7 +7262,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -7357,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -7366,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33" s="1">
         <v>3</v>
@@ -7461,7 +7461,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
@@ -7470,7 +7470,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -7574,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -7669,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -7678,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -7916,13 +7916,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8307,114 +8307,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -8440,13 +8440,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="15">
         <v>4</v>
@@ -8545,13 +8545,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H3" s="15">
         <v>2</v>
@@ -8650,13 +8650,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15">
         <v>2</v>
@@ -8755,13 +8755,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="15">
         <v>2</v>
@@ -8860,13 +8860,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H6" s="15">
         <v>2</v>
@@ -8965,13 +8965,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="15">
         <v>3</v>
@@ -9070,13 +9070,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8" s="15">
         <v>4</v>
@@ -9175,13 +9175,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="15">
         <v>2</v>
@@ -9280,13 +9280,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="15">
         <v>3</v>
@@ -9385,13 +9385,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
@@ -9490,13 +9490,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12" s="15">
         <v>4</v>
@@ -9595,13 +9595,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
@@ -9700,13 +9700,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="15">
         <v>4</v>
@@ -9805,13 +9805,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H15" s="15">
         <v>3</v>
@@ -9910,13 +9910,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="15">
         <v>3</v>
@@ -10015,13 +10015,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H17" s="15">
         <v>4</v>
@@ -10120,13 +10120,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="15">
         <v>3</v>
@@ -10225,13 +10225,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" s="15">
         <v>3</v>
@@ -10330,13 +10330,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="15">
         <v>3</v>
@@ -10435,13 +10435,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="15">
         <v>3</v>
@@ -10540,13 +10540,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="15">
         <v>3</v>
@@ -10645,13 +10645,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="15">
         <v>4</v>
@@ -10750,13 +10750,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24" s="15">
         <v>3</v>
@@ -10840,7 +10840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>1</v>
       </c>
@@ -10855,13 +10855,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H25" s="15">
         <v>1</v>
@@ -10945,7 +10945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -10960,13 +10960,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="15">
         <v>3</v>
@@ -11050,7 +11050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>1</v>
       </c>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27" s="15">
         <v>4</v>
@@ -11155,7 +11155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>0</v>
       </c>
@@ -11170,13 +11170,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H28" s="15">
         <v>6</v>
@@ -11260,7 +11260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>0</v>
       </c>
@@ -11275,13 +11275,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29" s="15">
         <v>2</v>
@@ -11365,7 +11365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>1</v>
       </c>
@@ -11380,13 +11380,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="15">
         <v>4</v>
@@ -11470,7 +11470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>1</v>
       </c>
@@ -11485,13 +11485,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31" s="15">
         <v>2</v>
@@ -11771,114 +11771,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -11905,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -12010,7 +12010,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -12115,7 +12115,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -12220,7 +12220,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -12325,7 +12325,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -12430,7 +12430,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -12535,7 +12535,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12640,7 +12640,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -12745,7 +12745,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -12850,7 +12850,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -12955,7 +12955,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -13060,7 +13060,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -13165,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -13270,7 +13270,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -13375,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -13480,7 +13480,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -13585,7 +13585,7 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -13690,7 +13690,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -13900,7 +13900,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -14005,7 +14005,7 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -14110,7 +14110,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -14215,7 +14215,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -14404,7 +14404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -14509,7 +14509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -14614,7 +14614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -14719,7 +14719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -14824,7 +14824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -14929,7 +14929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -15034,7 +15034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -15139,7 +15139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -15426,7 +15426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
@@ -15437,13 +15437,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
